--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="行程" sheetId="2" r:id="rId1"/>
     <sheet name="航班" sheetId="3" r:id="rId2"/>
     <sheet name="景点" sheetId="1" r:id="rId3"/>
-    <sheet name="酒店" sheetId="5" r:id="rId4"/>
-    <sheet name="保险" sheetId="4" r:id="rId5"/>
+    <sheet name="饮食" sheetId="6" r:id="rId4"/>
+    <sheet name="酒店" sheetId="5" r:id="rId5"/>
+    <sheet name="保险" sheetId="4" r:id="rId6"/>
+    <sheet name="携带物品" sheetId="7" r:id="rId7"/>
+    <sheet name="人均" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -21,10 +24,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>美人鱼岛一日游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环滩岛一日游</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,93 +96,21 @@
     </r>
   </si>
   <si>
-    <t>梦之岛假期。
-DREAMY ISLAND HOLIDAYS SDN BHD KPL/LN 6800
-默迪卡购物广场 ， B座（第2期） 12楼，门牌 B1203 。
-电话号码 : +6088267513 , 传真机号码 ： +6088257513 。 
-优先于迪加岛。不过我百度不到环滩岛在沙巴的什么方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">350RM
 包含市区酒店和市区码头的来回接送，中文导游，2次出海浮潜和浮潜配备和指导，自助海鲜式午餐。
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>迪加岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>250RM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>委士顿（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>weston</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）红树林长鼻猴萤火虫一日游</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>170RM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拉卜湾长鼻猴保护区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>梦之岛假期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dreamy Island Transport 梦之岛快艇DBKK 244530
- Kota Kinabalu, Sabah, Malaysia.
- +6016 803 3503(MR.Ang洪叔),
- +601119070966(Ms.Mun雅雯)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>环滩岛去不成。考虑迪加岛</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海龟岛公园</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,12 +316,74 @@
       <t>www.thepalacehotelkk.com</t>
     </r>
   </si>
+  <si>
+    <t>梦之岛假期。
+DREAMY ISLAND HOLIDAYS SDN BHD KPL/LN 6800
+默迪卡购物广场 ， B座（第2期） 12楼，门牌 B1203 。
+电话号码 : +6088267513 , 传真机号码 ： +6088257513 。 
+优先于迪加岛。不过我百度不到环滩岛在沙巴的什么方向</t>
+  </si>
+  <si>
+    <t>迪加岛</t>
+  </si>
+  <si>
+    <t>环滩岛一日游</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dreamy Island Transport 梦之岛快艇DBKK 244530
+ Kota Kinabalu, Sabah, Malaysia.
+ +6016 803 3503(MR.Ang洪叔),
+ +601119070966(Ms.Mun雅雯)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环滩岛去不成。考虑迪加岛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>委士顿（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>weston</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）红树林长鼻猴萤火虫一日游</t>
+    </r>
+  </si>
+  <si>
+    <t>拉卜湾长鼻猴保护区</t>
+  </si>
+  <si>
+    <t>海龟岛公园</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,16 +528,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -571,12 +574,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,16 +646,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,6 +658,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1087,16 +1141,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
@@ -1105,282 +1162,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="21">
+        <v>41612</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="22"/>
+      <c r="B3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="22"/>
+      <c r="B4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="23"/>
+      <c r="B5" s="14">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="21">
+        <v>41613</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="22"/>
+      <c r="B7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22"/>
+      <c r="B8" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23"/>
+      <c r="B9" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24">
+        <v>41614</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="25"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24">
+        <v>41615</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="25"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="25"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="24">
+        <v>41616</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="25"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="25"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="24">
+        <v>41617</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="25"/>
+      <c r="B20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="16">
-        <v>41612</v>
-      </c>
-      <c r="B2" s="17">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16">
-        <v>41613</v>
-      </c>
-      <c r="B6" s="17">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17">
-        <v>0.625</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16">
-        <v>41614</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16">
-        <v>41615</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16">
-        <v>41616</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16">
-        <v>41617</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1393,10 +1457,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1409,16 +1476,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1428,19 +1495,19 @@
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="94.5">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1448,16 +1515,16 @@
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="75">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1465,58 +1532,58 @@
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1">
       <c r="A8" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="20"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1531,26 +1598,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>59</v>
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1564,8 +1649,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1574,4 +1662,36 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="行程" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color indexed="30"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -64,11 +64,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
+        <color indexed="30"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>红树林双配套优惠价马币</t>
     </r>
@@ -76,7 +74,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color indexed="30"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -86,11 +84,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
+        <color indexed="30"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>人</t>
     </r>
@@ -133,10 +129,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>开放时间：9:30~14:30 (平台A)，11:30~16:30（平台B）</t>
     </r>
@@ -144,10 +138,9 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 http://www.proboscis.cc</t>
@@ -269,10 +262,9 @@
         <b/>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color indexed="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>www.novotel.com/asia</t>
     </r>
@@ -285,10 +277,9 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>网站</t>
     </r>
@@ -296,7 +287,7 @@
       <rPr>
         <b/>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -308,10 +299,9 @@
         <b/>
         <u/>
         <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>www.thepalacehotelkk.com</t>
     </r>
@@ -328,26 +318,6 @@
   </si>
   <si>
     <t>环滩岛一日游</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dreamy Island Transport 梦之岛快艇DBKK 244530
- Kota Kinabalu, Sabah, Malaysia.
- +6016 803 3503(MR.Ang洪叔),
- +601119070966(Ms.Mun雅雯)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>环滩岛去不成。考虑迪加岛</t>
-    </r>
   </si>
   <si>
     <r>
@@ -364,10 +334,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>）红树林长鼻猴萤火虫一日游</t>
     </r>
@@ -377,83 +345,90 @@
   </si>
   <si>
     <t>海龟岛公园</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dreamy Island Transport 梦之岛快艇DBKK 244530
+ Kota Kinabalu, Sabah, Malaysia.
+ +6016 803 3503(MR.Ang洪叔),
+ +601119070966(Ms.Mun雅雯)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环滩岛去不成。考虑迪加岛</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF0070C0"/>
+      <color indexed="30"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color indexed="30"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -463,77 +438,90 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="新宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="新宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -546,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,9 +602,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,20 +623,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,44 +641,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -708,31 +691,39 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247163</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>94669</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2049" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4886325" y="209550"/>
-          <a:ext cx="3895238" cy="4647619"/>
+          <a:off x="5495925" y="190500"/>
+          <a:ext cx="4352925" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -746,31 +737,39 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304229</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>142238</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="2050" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="4571429" cy="5095238"/>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="5105400" cy="4600575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -784,31 +783,39 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>580419</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>132860</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="2051" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9144000" y="209550"/>
-          <a:ext cx="4847619" cy="3923810"/>
+          <a:off x="10287000" y="190500"/>
+          <a:ext cx="5381625" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -822,31 +829,39 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>113753</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>46953</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="2052" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14630400" y="190500"/>
-          <a:ext cx="4380953" cy="5380953"/>
+          <a:off x="16459200" y="171450"/>
+          <a:ext cx="4914900" cy="4848225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -929,7 +944,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -964,7 +978,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1140,294 +1153,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21">
+      <c r="A2" s="23">
         <v>41612</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="14">
+      <c r="A5" s="25"/>
+      <c r="B5" s="13">
         <v>0.92361111111111116</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21">
+      <c r="A6" s="23">
         <v>41613</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="14">
+      <c r="A8" s="24"/>
+      <c r="B8" s="13">
         <v>0.625</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="14">
+      <c r="A9" s="25"/>
+      <c r="B9" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24">
+      <c r="A10" s="19">
         <v>41614</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="25"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="24">
+      <c r="A13" s="19">
         <v>41615</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="25"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="25"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="24">
+      <c r="A16" s="19">
         <v>41616</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="24">
+      <c r="A19" s="19">
         <v>41617</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1436,12 +1449,14 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1449,28 +1464,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="72.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1493,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="94.5">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="85.5">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
@@ -1513,26 +1529,26 @@
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="75">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" s="21" customFormat="1" ht="67.5">
+      <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>56</v>
+      <c r="D6" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1">
-      <c r="A8" s="9" t="s">
-        <v>57</v>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="14.25">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -1543,13 +1559,13 @@
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="40.5">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -1557,14 +1573,14 @@
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1577,7 +1593,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1597,7 +1613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1605,14 +1621,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1622,23 +1639,24 @@
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="http://www.grandborneohotel.com/"/>
     <hyperlink ref="I1" r:id="rId2" display="http://www.minggardenhotel.com/"/>
@@ -1650,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -1658,14 +1676,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -1673,14 +1692,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.499984740745262"/>
   </sheetPr>
@@ -1690,8 +1710,9 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="行程" sheetId="2" r:id="rId1"/>
@@ -331,26 +331,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Dreamy Island Transport 梦之岛快艇DBKK 244530
- Kota Kinabalu, Sabah, Malaysia.
- +6016 803 3503(MR.Ang洪叔),
- +601119070966(Ms.Mun雅雯)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>环滩岛去不成。考虑迪加岛</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>委士顿（</t>
     </r>
     <r>
@@ -378,12 +358,32 @@
   <si>
     <t>海龟岛公园</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dreamy Island Transport 梦之岛快艇DBKK 244530
+ Kota Kinabalu, Sabah, Malaysia.
+ +6016 803 3503(MR.Ang洪叔),
+ +601119070966(Ms.Mun雅雯)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环滩岛去不成。考虑迪加岛</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,14 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -532,6 +524,31 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -616,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,20 +652,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,27 +671,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,14 +1166,14 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
@@ -1162,25 +1182,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1188,246 +1208,246 @@
       <c r="A2" s="21">
         <v>41612</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="22"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="22"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="23"/>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>0.92361111111111116</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="21">
         <v>41613</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="22"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="22"/>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>0.625</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="23"/>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24">
+      <c r="A10" s="19">
         <v>41614</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="25"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="24">
+      <c r="A13" s="19">
         <v>41615</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="25"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="25"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="24">
+      <c r="A16" s="19">
         <v>41616</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="24">
+      <c r="A19" s="19">
         <v>41617</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1462,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1513,26 +1533,26 @@
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="75">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" s="25" customFormat="1" ht="75">
+      <c r="A6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>56</v>
+      <c r="D6" s="26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1">
-      <c r="A8" s="9" t="s">
-        <v>57</v>
+      <c r="A8" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -1543,13 +1563,13 @@
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="45">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -1557,27 +1577,27 @@
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="E9" s="24"/>
+    </row>
+    <row r="11" spans="1:5" s="25" customFormat="1">
+      <c r="A11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1625,16 +1645,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Y1" s="17" t="s">
         <v>52</v>
       </c>
     </row>

--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="行程" sheetId="2" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="携带物品" sheetId="7" r:id="rId7"/>
     <sheet name="人均" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>美人鱼岛一日游</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,26 @@
       </rPr>
       <t>环滩岛去不成。考虑迪加岛</t>
     </r>
+  </si>
+  <si>
+    <t>出发去环滩岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出发去红树林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1159,9 +1179,9 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:B15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1321,8 +1341,12 @@
       <c r="A10" s="19">
         <v>41614</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
@@ -1332,8 +1356,12 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="20"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1341,8 +1369,12 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="20"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1352,8 +1384,12 @@
       <c r="A13" s="19">
         <v>41615</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
@@ -1363,8 +1399,12 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="20"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="13">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1478,7 +1518,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28140" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="代办事物" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="携带物品" sheetId="8" r:id="rId8"/>
     <sheet name="人均" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>状态</t>
   </si>
@@ -183,6 +183,7 @@
         <sz val="11"/>
         <color indexed="30"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>环滩岛一日游加</t>
@@ -204,6 +205,7 @@
         <sz val="11"/>
         <color indexed="30"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红树林双配套优惠价马币</t>
@@ -225,6 +227,7 @@
         <sz val="11"/>
         <color indexed="30"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>人</t>
@@ -244,6 +247,7 @@
         <sz val="11"/>
         <color indexed="36"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Dreamy Island Transport 梦之岛快艇DBKK 244530
@@ -258,6 +262,7 @@
         <strike/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>环滩岛去不成。考虑迪加岛</t>
@@ -268,6 +273,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>委士顿（</t>
@@ -285,6 +291,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）红树林长鼻猴萤火虫一日游</t>
@@ -310,6 +317,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开放时间：9:30~14:30 (平台A)，11:30~16:30（平台B）</t>
@@ -320,6 +328,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -354,6 +363,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Novotel Hotel 网站 </t>
@@ -365,6 +375,7 @@
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>www.novotel.com/asia</t>
@@ -388,6 +399,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>网站</t>
@@ -410,6 +422,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>www.thepalacehotelkk.com</t>
@@ -468,29 +481,23 @@
   </si>
   <si>
     <t>防晒霜</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="H:mm"/>
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="181" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -591,6 +598,7 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -599,6 +607,7 @@
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -614,12 +623,58 @@
       <strike/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -704,121 +759,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,6 +1152,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1148,17 +1185,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="68.25" customWidth="1"/>
@@ -1166,77 +1203,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="27">
+        <v>41602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="31">
-        <v>41602</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="27">
+        <v>41607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="31">
+      <c r="B4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="27">
         <v>41607</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="31">
-        <v>41607</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="15"/>
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="17" customWidth="1"/>
     <col min="3" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="33.875" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
@@ -1244,301 +1281,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20">
+      <c r="A2" s="28">
         <v>41612</v>
       </c>
-      <c r="B2" s="21">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="19">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25"/>
-      <c r="B5" s="21">
-        <v>0.923611111111111</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="19">
+        <v>0.92361111111111105</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20">
+      <c r="A6" s="28">
         <v>41613</v>
       </c>
-      <c r="B6" s="21">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="19">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21">
+      <c r="A8" s="29"/>
+      <c r="B8" s="19">
         <v>0.625</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="25"/>
-      <c r="B9" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="19">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26">
+      <c r="A10" s="31">
         <v>41614</v>
       </c>
-      <c r="B10" s="21">
-        <v>0.277777777777778</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="19">
+        <v>0.27777777777777801</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="21">
-        <v>0.305555555555556</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="19">
+        <v>0.30555555555555602</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26"/>
-      <c r="B12" s="21">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="19">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26">
+      <c r="A13" s="22">
         <v>41615</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="21">
+      <c r="A15" s="23"/>
+      <c r="B15" s="19">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="21">
-        <v>0.805555555555556</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="19">
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26">
+      <c r="A17" s="22">
         <v>41616</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26">
+      <c r="A20" s="22">
         <v>41617</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1548,33 +1585,33 @@
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="11"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="44"/>
   </sheetPr>
@@ -1584,7 +1621,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="38.75" customWidth="1"/>
     <col min="3" max="3" width="33.875" customWidth="1"/>
@@ -1592,7 +1629,7 @@
     <col min="5" max="5" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="2:5">
+    <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
@@ -1606,12 +1643,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="85.5" spans="1:5">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="85.5">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -1628,10 +1665,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="4:4">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="D5" s="11"/>
     </row>
-    <row r="6" s="7" customFormat="1" ht="67.5" spans="1:4">
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="67.5">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
@@ -1645,10 +1682,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="1:5">
       <c r="D7" s="13"/>
     </row>
-    <row r="8" s="6" customFormat="1" ht="14.25" spans="1:5">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="14.25">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
@@ -1661,11 +1698,11 @@
       <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="40.5" spans="1:5">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="40.5">
       <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
@@ -1675,12 +1712,12 @@
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E9" s="32"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -1694,12 +1731,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1708,33 +1745,33 @@
   <mergeCells count="1">
     <mergeCell ref="E8:E9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="42"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
@@ -1761,39 +1798,38 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId3" display="元明酒店 网站 www.minggardenhotel.com"/>
-    <hyperlink ref="A1" r:id="rId4" display="Grand Borneo Hotel 网站 www.grandborneohotel.com"/>
+    <hyperlink ref="I1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="9"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="55"/>
   </sheetPr>
@@ -1894,14 +1930,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
@@ -1911,7 +1948,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1922,8 +1959,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13200" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="代办事物" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>状态</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>截止日期</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>途牛签证送签</t>
@@ -441,49 +438,67 @@
     <t>4. OOO写好</t>
   </si>
   <si>
+    <t>6. 身份证</t>
+  </si>
+  <si>
+    <t>7. 攻略机票酒店信息打印纸</t>
+  </si>
+  <si>
+    <t>8. 电子设备电量检查</t>
+  </si>
+  <si>
+    <t>9. 充电器接口线</t>
+  </si>
+  <si>
+    <t>10.墨镜，隐形眼镜，隐形眼镜药水，眼药水</t>
+  </si>
+  <si>
+    <t>11.交通卡</t>
+  </si>
+  <si>
+    <t>12.洗护类：洗发水，防晒霜，面霜</t>
+  </si>
+  <si>
+    <t>13.拖鞋，泳裤，泳镜</t>
+  </si>
+  <si>
+    <t>14.常用药</t>
+  </si>
+  <si>
+    <t>15.剃须刀</t>
+  </si>
+  <si>
+    <t>16.钥匙</t>
+  </si>
+  <si>
+    <t>防晒霜</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>手机防水袋</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3000人民币兑换马币</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
     <t>5. 现金1000，再带点零钱，信用卡借记卡</t>
-  </si>
-  <si>
-    <t>6. 身份证</t>
-  </si>
-  <si>
-    <t>7. 攻略机票酒店信息打印纸</t>
-  </si>
-  <si>
-    <t>8. 电子设备电量检查</t>
-  </si>
-  <si>
-    <t>9. 充电器接口线</t>
-  </si>
-  <si>
-    <t>10.墨镜，隐形眼镜，隐形眼镜药水，眼药水</t>
-  </si>
-  <si>
-    <t>11.交通卡</t>
-  </si>
-  <si>
-    <t>12.洗护类：洗发水，防晒霜，面霜</t>
-  </si>
-  <si>
-    <t>13.拖鞋，泳裤，泳镜</t>
-  </si>
-  <si>
-    <t>14.常用药</t>
-  </si>
-  <si>
-    <t>15.剃须刀</t>
-  </si>
-  <si>
-    <t>16.钥匙</t>
-  </si>
-  <si>
-    <t>17.马币</t>
-  </si>
-  <si>
-    <t>防晒霜</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -491,10 +506,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="181" formatCode="h:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -673,6 +688,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -767,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -811,7 +833,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -831,7 +853,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,6 +868,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1192,7 +1218,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1215,10 +1241,10 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="27">
         <v>41602</v>
@@ -1226,10 +1252,10 @@
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="25" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="27">
         <v>41607</v>
@@ -1237,10 +1263,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="25" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="27">
         <v>41607</v>
@@ -1266,7 +1292,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -1282,25 +1308,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1311,7 +1337,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -1321,33 +1347,33 @@
     <row r="3" spans="1:7">
       <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1356,7 +1382,7 @@
         <v>0.92361111111111105</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -1371,28 +1397,28 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1401,15 +1427,15 @@
         <v>0.625</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1431,12 +1457,12 @@
         <v>0.27777777777777801</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="20"/>
     </row>
@@ -1446,7 +1472,7 @@
         <v>0.30555555555555602</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1459,7 +1485,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1475,7 +1501,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="20"/>
     </row>
@@ -1494,7 +1520,7 @@
         <v>0.5625</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -1507,7 +1533,7 @@
         <v>0.80555555555555602</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1548,35 +1574,35 @@
         <v>41617</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="23"/>
       <c r="B21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1643,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1631,38 +1657,38 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="85.5">
       <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1670,16 +1696,16 @@
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" ht="67.5">
       <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1687,58 +1713,58 @@
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" ht="14.25">
       <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="32" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" ht="40.5">
       <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="E9" s="32"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1785,16 +1811,16 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1835,8 +1861,8 @@
   </sheetPr>
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1846,87 +1872,87 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
+      <c r="A5" s="34" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>85</v>
+      <c r="A17" s="33" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1942,20 +1968,31 @@
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1">
         <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -4,25 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13200" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="代办事物" sheetId="1" r:id="rId1"/>
     <sheet name="行程" sheetId="2" r:id="rId2"/>
-    <sheet name="航班" sheetId="3" r:id="rId3"/>
-    <sheet name="景点" sheetId="4" r:id="rId4"/>
-    <sheet name="饮食" sheetId="5" r:id="rId5"/>
-    <sheet name="酒店" sheetId="6" r:id="rId6"/>
-    <sheet name="保险" sheetId="7" r:id="rId7"/>
-    <sheet name="携带物品" sheetId="8" r:id="rId8"/>
-    <sheet name="人均" sheetId="9" r:id="rId9"/>
+    <sheet name="景点" sheetId="4" r:id="rId3"/>
+    <sheet name="饮食" sheetId="5" r:id="rId4"/>
+    <sheet name="酒店" sheetId="6" r:id="rId5"/>
+    <sheet name="保险" sheetId="7" r:id="rId6"/>
+    <sheet name="携带物品" sheetId="8" r:id="rId7"/>
+    <sheet name="人均" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>状态</t>
   </si>
@@ -52,9 +51,6 @@
   </si>
   <si>
     <t>酒店</t>
-  </si>
-  <si>
-    <t>活动</t>
   </si>
   <si>
     <t>餐饮</t>
@@ -165,70 +161,6 @@
     <t xml:space="preserve">350RM
 包含市区酒店和市区码头的来回接送，中文导游，2次出海浮潜和浮潜配备和指导，自助海鲜式午餐。
 </t>
-  </si>
-  <si>
-    <t>梦之岛假期。
-DREAMY ISLAND HOLIDAYS SDN BHD KPL/LN 6800
-默迪卡购物广场 ， B座（第2期） 12楼，门牌 B1203 。
-电话号码 : +6088267513 , 传真机号码 ： +6088257513 。 
-优先于迪加岛。不过我百度不到环滩岛在沙巴的什么方向</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>环滩岛一日游加</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>weston</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>红树林双配套优惠价马币</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>500/1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="30"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人</t>
-    </r>
   </si>
   <si>
     <t>迪加岛</t>
@@ -357,6 +289,134 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">皇宫酒店 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>www.thepalacehotelkk.com</t>
+    </r>
+  </si>
+  <si>
+    <t>1. PDF到iphone</t>
+  </si>
+  <si>
+    <t>2. 衣服整理</t>
+  </si>
+  <si>
+    <t>3. 相机，镜头，数据卡检查</t>
+  </si>
+  <si>
+    <t>4. OOO写好</t>
+  </si>
+  <si>
+    <t>6. 身份证</t>
+  </si>
+  <si>
+    <t>7. 攻略机票酒店信息打印纸</t>
+  </si>
+  <si>
+    <t>8. 电子设备电量检查</t>
+  </si>
+  <si>
+    <t>9. 充电器接口线</t>
+  </si>
+  <si>
+    <t>10.墨镜，隐形眼镜，隐形眼镜药水，眼药水</t>
+  </si>
+  <si>
+    <t>11.交通卡</t>
+  </si>
+  <si>
+    <t>13.拖鞋，泳裤，泳镜</t>
+  </si>
+  <si>
+    <t>15.剃须刀</t>
+  </si>
+  <si>
+    <t>16.钥匙</t>
+  </si>
+  <si>
+    <t>防晒霜</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>手机防水袋</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3000人民币兑换马币</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 现金1000，再带点零钱，信用卡借记卡</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dianping.com/shop/5736754</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>大茄来海鲜餐厅</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>近亚洲中心</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
@@ -377,112 +437,90 @@
       </rPr>
       <t>www.novotel.com/asia</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">皇宫酒店 </t>
-    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Novotel Hotel
+</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心思想</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>随意</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color indexed="30"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>网站</t>
+      <t>环滩岛一日游加</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
+        <sz val="11"/>
+        <color indexed="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>weston</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <u/>
-        <sz val="10.5"/>
-        <color indexed="8"/>
+        <sz val="11"/>
+        <color indexed="30"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>www.thepalacehotelkk.com</t>
-    </r>
-  </si>
-  <si>
-    <t>1. PDF到iphone</t>
-  </si>
-  <si>
-    <t>2. 衣服整理</t>
-  </si>
-  <si>
-    <t>3. 相机，镜头，数据卡检查</t>
-  </si>
-  <si>
-    <t>4. OOO写好</t>
-  </si>
-  <si>
-    <t>6. 身份证</t>
-  </si>
-  <si>
-    <t>7. 攻略机票酒店信息打印纸</t>
-  </si>
-  <si>
-    <t>8. 电子设备电量检查</t>
-  </si>
-  <si>
-    <t>9. 充电器接口线</t>
-  </si>
-  <si>
-    <t>10.墨镜，隐形眼镜，隐形眼镜药水，眼药水</t>
-  </si>
-  <si>
-    <t>11.交通卡</t>
-  </si>
-  <si>
-    <t>12.洗护类：洗发水，防晒霜，面霜</t>
-  </si>
-  <si>
-    <t>13.拖鞋，泳裤，泳镜</t>
-  </si>
-  <si>
-    <t>14.常用药</t>
-  </si>
-  <si>
-    <t>15.剃须刀</t>
-  </si>
-  <si>
-    <t>16.钥匙</t>
-  </si>
-  <si>
-    <t>防晒霜</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>手机防水袋</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>17.</t>
+      <t>红树林双配套优惠价马币</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="30"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>520/1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="30"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">梦之岛假期。
+DREAMY ISLAND HOLIDAYS SDN BHD KPL/LN 6800
+默迪卡购物广场 ， B座（第2期） 12楼，门牌 B1203 。
+电话号码 : +6088267513 , 传真机号码 ： +6088257513 。 
+</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -492,13 +530,53 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>3000人民币兑换马币</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 现金1000，再带点零钱，信用卡借记卡</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+      <t>8.望远镜</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.洗护类：洗发水，防晒霜，面霜，晒后修复，面膜</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.常用药</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>环滩岛一日游含自助式午餐</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>预计2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1点到酒店</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>红树林一日游含马来式糕点及茶点</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>快艇看长鼻猴</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>红树林一日游自助式晚餐，（攻略说不美味，建议带点小食，以免饿晕过去</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜宵来点？</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -509,7 +587,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -542,20 +620,6 @@
       <strike/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="30"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="30"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -695,6 +759,14 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="30"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -789,13 +861,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,24 +880,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,38 +905,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -881,6 +989,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10601325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8193" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="57150"/>
+          <a:ext cx="10601325" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,51 +1389,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="22">
         <v>41602</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="22">
         <v>41607</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="22">
         <v>41607</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Yes, No"</formula1>
@@ -1290,328 +1450,359 @@
   <sheetPr>
     <tabColor indexed="15"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="14" customWidth="1"/>
     <col min="3" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="5" width="33.875" customWidth="1"/>
-    <col min="6" max="6" width="26.75" customWidth="1"/>
-    <col min="7" max="7" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="25">
+        <v>41612</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28">
-        <v>41612</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26"/>
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="29"/>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="26"/>
+      <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="29"/>
-      <c r="B4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27"/>
+      <c r="B5" s="16">
+        <v>0.92361111111111105</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="30"/>
-      <c r="B5" s="19">
-        <v>0.92361111111111105</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="25">
+        <v>41613</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="28">
-        <v>41613</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="26"/>
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26"/>
+      <c r="B8" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="29"/>
-      <c r="B8" s="19">
-        <v>0.625</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27"/>
+      <c r="B9" s="16">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="28">
+        <v>41614</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.27777777777777801</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="28"/>
+      <c r="B11" s="16">
+        <v>0.30555555555555602</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="19">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="31">
-        <v>41614</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.27777777777777801</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="28"/>
+      <c r="B12" s="16">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="42">
+        <v>41615</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="31"/>
-      <c r="B11" s="19">
-        <v>0.30555555555555602</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="43"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="43"/>
+      <c r="B15" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.5">
+      <c r="A16" s="43"/>
+      <c r="B16" s="46">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="44"/>
+      <c r="B17" s="16">
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="31"/>
-      <c r="B12" s="19">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="22">
-        <v>41615</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
-      <c r="B15" s="19">
-        <v>0.5625</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="42">
+        <v>41616</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="43"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="44"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="42">
+        <v>41617</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="23"/>
-      <c r="B16" s="19">
-        <v>0.80555555555555602</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="22">
-        <v>41616</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="23"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="22">
-        <v>41617</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="C21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="44"/>
+      <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21" t="s">
+      <c r="C22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="F22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="G22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D5:D20"/>
+    <mergeCell ref="G6:G20"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -1621,30 +1812,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor indexed="11"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
     <tabColor indexed="44"/>
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1655,123 +1828,164 @@
     <col min="5" max="5" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="85.5">
+      <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="85.5">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="67.5">
+      <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="67.5">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:5">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="14.25">
+      <c r="A8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="14.25">
-      <c r="A8" s="14" t="s">
+      <c r="E8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="40.5">
+      <c r="A9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="40.5">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E8:E9"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor indexed="42"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -1781,50 +1995,32 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor indexed="42"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
     <tabColor indexed="47"/>
   </sheetPr>
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1"/>
     <hyperlink ref="A1" r:id="rId2"/>
@@ -1836,33 +2032,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="9"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:1">
+      <c r="A10" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="55"/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1872,98 +2078,103 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="34" t="s">
-        <v>87</v>
+      <c r="A5" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>78</v>
+      <c r="A12" s="24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>80</v>
+      <c r="A14" s="24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="33" t="s">
-        <v>86</v>
+      <c r="A17" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="41" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor indexed="17"/>
@@ -1981,22 +2192,22 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
-        <v>85</v>
+      <c r="A2" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="B2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -587,7 +587,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -767,6 +767,14 @@
       <b/>
       <sz val="12"/>
       <color indexed="30"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -861,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -917,42 +925,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -961,15 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -981,6 +950,49 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1454,7 +1466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1484,18 +1496,18 @@
       <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25">
+      <c r="A2" s="38">
         <v>41612</v>
       </c>
-      <c r="B2" s="16">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="17"/>
@@ -1504,7 +1516,7 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1533,7 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1536,14 +1548,14 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="16">
         <v>0.92361111111111105</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="42" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="17"/>
@@ -1551,7 +1563,7 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="25">
+      <c r="A6" s="38">
         <v>41613</v>
       </c>
       <c r="B6" s="16">
@@ -1560,60 +1572,60 @@
       <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="45" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="16">
         <v>0.625</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="16">
         <v>0.70833333333333304</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="28">
+      <c r="A10" s="41">
         <v>41614</v>
       </c>
       <c r="B10" s="16">
@@ -1622,141 +1634,141 @@
       <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="28"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="16">
         <v>0.30555555555555602</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="32" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="28"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="16">
         <v>0.64583333333333304</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="42">
+      <c r="A13" s="36">
         <v>41615</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="43"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="43"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="16">
         <v>0.5625</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="45" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="32" t="s">
         <v>96</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="40.5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="46">
+      <c r="A16" s="47"/>
+      <c r="B16" s="33">
         <v>0.72222222222222221</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="48" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="35" t="s">
         <v>98</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="44"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="16">
         <v>0.80555555555555602</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="45" t="s">
+      <c r="D17" s="43"/>
+      <c r="E17" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="42">
+      <c r="A18" s="36">
         <v>41616</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="32"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="43"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="38"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="44"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="42">
+      <c r="A21" s="36">
         <v>41617</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -1775,7 +1787,7 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="44"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="18" t="s">
         <v>35</v>
       </c>
@@ -1793,14 +1805,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G6:G20"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="D5:D20"/>
-    <mergeCell ref="G6:G20"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,10 +1869,10 @@
       <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="29" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1897,7 +1909,7 @@
       <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="48" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1914,7 +1926,7 @@
       <c r="D9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -1977,7 +1989,7 @@
       <c r="B1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2012,7 +2024,7 @@
       <c r="I1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="26" t="s">
         <v>85</v>
       </c>
       <c r="Y1" s="3" t="s">
@@ -2049,7 +2061,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -2162,7 +2174,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="31" t="s">
         <v>91</v>
       </c>
     </row>

--- a/sabah.xlsx
+++ b/sabah.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>状态</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>回程</t>
-  </si>
-  <si>
-    <t>出发去红树林</t>
   </si>
   <si>
     <t xml:space="preserve">08:50-09:30 </t>
@@ -576,6 +573,14 @@
   </si>
   <si>
     <t>夜宵来点？</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店大厅等，出发去红树林</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店大厅等</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -950,9 +955,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,22 +995,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,7 +1418,7 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>3</v>
@@ -1424,7 +1429,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>4</v>
@@ -1435,7 +1440,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>5</v>
@@ -1466,7 +1471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1497,17 +1502,17 @@
         <v>11</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="38">
+      <c r="A2" s="43">
         <v>41612</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="36">
         <v>0.5</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="17"/>
@@ -1516,7 +1521,7 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="39"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
@@ -1533,7 +1538,7 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="39"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1548,22 +1553,22 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="16">
         <v>0.92361111111111105</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>86</v>
+      <c r="D5" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="38">
+      <c r="A6" s="43">
         <v>41613</v>
       </c>
       <c r="B6" s="16">
@@ -1572,234 +1577,234 @@
       <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="45" t="s">
-        <v>88</v>
+      <c r="G6" s="38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="39"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="16">
         <v>0.625</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="40"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="16">
         <v>0.70833333333333304</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="43"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="41">
+      <c r="A10" s="46">
         <v>41614</v>
       </c>
       <c r="B10" s="16">
-        <v>0.27777777777777801</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="43"/>
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="48"/>
       <c r="E10" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="41"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="16">
         <v>0.30555555555555602</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="41"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="16">
         <v>0.64583333333333304</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="36">
+      <c r="A13" s="40">
         <v>41615</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="16">
-        <v>0.5625</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="43"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="48"/>
       <c r="E15" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="40.5">
-      <c r="A16" s="47"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="33">
         <v>0.72222222222222221</v>
       </c>
       <c r="C16" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="35" t="s">
-        <v>98</v>
-      </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="37"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="16">
         <v>0.80555555555555602</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="46"/>
+        <v>94</v>
+      </c>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="36">
+      <c r="A18" s="40">
         <v>41616</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="37"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="44"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="36">
+      <c r="A21" s="40">
         <v>41617</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="42"/>
+      <c r="B22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="37"/>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -1842,38 +1847,38 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="85.5">
       <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1881,16 +1886,16 @@
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="67.5">
       <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1898,58 +1903,58 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="14.25">
       <c r="A8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="50" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="40.5">
       <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1984,13 +1989,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>84</v>
-      </c>
       <c r="C1" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2019,16 +2024,16 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="P1" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2090,92 +2095,92 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1">
         <v>30</v>
@@ -2212,7 +2217,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>46</v>
